--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -13,6 +13,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A15">
+      <text>
+        <t xml:space="preserve">為了讓玩家可以穿梭在萬軍之中，不會因為敵人堵住所有下落空間導致玩家受到傷害。
+	-Bridge Lin</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,15 +124,6 @@
     <t>https://cowlevel.net/article/2017835</t>
   </si>
   <si>
-    <t>跳殺</t>
-  </si>
-  <si>
-    <t>跳到敵人頭上，對其造成傷害，玩家角色向上反彈</t>
-  </si>
-  <si>
-    <t>像是空洞騎士向下砍，鏟子騎士向下鏟</t>
-  </si>
-  <si>
     <t>攻擊</t>
   </si>
   <si>
@@ -144,6 +151,15 @@
     <t>0.5秒(暫定)未攻擊到敵人就重置</t>
   </si>
   <si>
+    <t>跳殺</t>
+  </si>
+  <si>
+    <t>跳到敵人頭上，對其造成傷害，玩家角色向上反彈</t>
+  </si>
+  <si>
+    <t>像是空洞騎士向下砍，鏟子騎士向下鏟</t>
+  </si>
+  <si>
     <t>敵人</t>
   </si>
   <si>
@@ -159,7 +175,7 @@
     <t>AI</t>
   </si>
   <si>
-    <t>當玩家在其前方一定距離，會開始暴衝</t>
+    <t>當玩家在其前方一定距離，會開始攻擊</t>
   </si>
   <si>
     <t>扣血、顯示受傷動畫、被擊退</t>
@@ -304,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -328,7 +344,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
@@ -404,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -445,10 +460,7 @@
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -460,10 +472,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7102,40 +7114,40 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
@@ -7147,9 +7159,7 @@
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -7178,10 +7188,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -7212,10 +7222,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -7246,47 +7256,49 @@
         <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>35</v>
+      <c r="B16" s="15" t="s">
+        <v>32</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -7310,17 +7322,17 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -7344,17 +7356,17 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -7378,17 +7390,17 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>37</v>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -7412,17 +7424,17 @@
       <c r="Z19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -7446,17 +7458,17 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -7480,17 +7492,17 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -7514,11 +7526,11 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7542,11 +7554,11 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -7570,11 +7582,11 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7598,11 +7610,11 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7626,11 +7638,11 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7654,11 +7666,11 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -34899,9 +34911,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E10"/>
+    <hyperlink r:id="rId2" ref="E10"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -34920,170 +34933,170 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>91</v>
       </c>
     </row>

--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>日期</t>
   </si>
@@ -175,7 +175,7 @@
     <t>AI</t>
   </si>
   <si>
-    <t>當玩家在其前方一定距離，會開始攻擊</t>
+    <t>當玩家在其前方一定距離，會開始攻擊，攻擊完會有後搖</t>
   </si>
   <si>
     <t>扣血、顯示受傷動畫、被擊退</t>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>碰到玩家，就會對玩家造成傷害</t>
+  </si>
+  <si>
+    <t>反彈</t>
+  </si>
+  <si>
+    <t>攻擊到玩家的當下會向後反彈</t>
   </si>
   <si>
     <t>項目</t>
@@ -6778,7 +6784,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="47.0"/>
+    <col customWidth="1" min="3" max="3" width="55.86"/>
     <col customWidth="1" min="4" max="4" width="47.86"/>
     <col customWidth="1" min="5" max="5" width="34.29"/>
   </cols>
@@ -7526,11 +7532,17 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -34934,13 +34946,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>12</v>
@@ -34948,156 +34960,156 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">

--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>日期</t>
   </si>
@@ -318,6 +318,30 @@
   <si>
     <t>小怪偵測到玩家開始暴衝的距離</t>
   </si>
+  <si>
+    <t>1.左下角放玩家頭像、血條、技能(如果有的話)</t>
+  </si>
+  <si>
+    <t>2. 用漫畫的打擊字取代傷害數字</t>
+  </si>
+  <si>
+    <t>3. 敵人血條</t>
+  </si>
+  <si>
+    <t>4.連擊數：一定次數後會起火(次數還沒設定)</t>
+  </si>
+  <si>
+    <t>*血條扣血的呈現我想要用格鬥遊戲的那種方式：</t>
+  </si>
+  <si>
+    <t>被打到前</t>
+  </si>
+  <si>
+    <t>被打到時紅色即時顯示傷害量</t>
+  </si>
+  <si>
+    <t>紅色會慢慢後退</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -484,6 +508,9 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -516,7 +543,7 @@
     <xdr:ext cx="5438775" cy="10039350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -538,7 +565,148 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5133975" cy="2886075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41074,7 +41242,48 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17">
+      <c r="C17" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -21,7 +21,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A15">
+    <comment authorId="0" ref="A19">
       <text>
         <t xml:space="preserve">為了讓玩家可以穿梭在萬軍之中，不會因為敵人堵住所有下落空間導致玩家受到傷害。
 	-Bridge Lin</t>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>本案為製作一個可以測試「一級目標」的原型。</t>
+  </si>
+  <si>
+    <t>要驗證的東西：</t>
+  </si>
+  <si>
+    <t>。企劃：現在的機制，是否能提供足夠的爽快感</t>
+  </si>
+  <si>
+    <t>。程式：製作方式</t>
+  </si>
+  <si>
+    <t>。美術、音樂：打擊感的呈現</t>
   </si>
   <si>
     <t>類別</t>
@@ -322,7 +334,7 @@
     <t>1.左下角放玩家頭像、血條、技能(如果有的話)</t>
   </si>
   <si>
-    <t>2. 用漫畫的打擊字取代傷害數字</t>
+    <t>2. 用漫畫的打擊字取代傷害數字(不一定要用英文)</t>
   </si>
   <si>
     <t>3. 敵人血條</t>
@@ -543,7 +555,7 @@
     <xdr:ext cx="5438775" cy="10039350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image5.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -604,7 +616,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -632,7 +644,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -660,7 +672,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -688,7 +700,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7018,7 +7030,9 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7046,8 +7060,10 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7074,21 +7090,13 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -7112,17 +7120,13 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -7146,17 +7150,11 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -7180,19 +7178,11 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -7216,17 +7206,21 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -7250,21 +7244,17 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
+      <c r="A10" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>25</v>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -7288,19 +7278,17 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7324,17 +7312,19 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>22</v>
+      <c r="A12" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>32</v>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -7359,13 +7349,13 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -7393,16 +7383,20 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -7427,52 +7421,52 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>41</v>
+      <c r="A16" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>32</v>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>42</v>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -7496,17 +7490,17 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
+      <c r="A17" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>43</v>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>44</v>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -7530,17 +7524,17 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -7564,48 +7558,50 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>41</v>
+      <c r="A19" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>34</v>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>47</v>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -7633,13 +7629,13 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -7667,13 +7663,13 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7701,13 +7697,13 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -7734,11 +7730,17 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -7762,11 +7764,17 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7790,11 +7798,17 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7818,11 +7832,17 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7874,11 +7894,11 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -7902,11 +7922,11 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -7930,11 +7950,11 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -7958,11 +7978,11 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -35089,9 +35109,121 @@
       <c r="Y1000" s="6"/>
       <c r="Z1000" s="6"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="6"/>
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="6"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="6"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+      <c r="J1001" s="6"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="6"/>
+      <c r="R1001" s="6"/>
+      <c r="S1001" s="6"/>
+      <c r="T1001" s="6"/>
+      <c r="U1001" s="6"/>
+      <c r="V1001" s="6"/>
+      <c r="W1001" s="6"/>
+      <c r="X1001" s="6"/>
+      <c r="Y1001" s="6"/>
+      <c r="Z1001" s="6"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="6"/>
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="6"/>
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="6"/>
+      <c r="G1002" s="6"/>
+      <c r="H1002" s="6"/>
+      <c r="I1002" s="6"/>
+      <c r="J1002" s="6"/>
+      <c r="K1002" s="6"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="6"/>
+      <c r="N1002" s="6"/>
+      <c r="O1002" s="6"/>
+      <c r="P1002" s="6"/>
+      <c r="Q1002" s="6"/>
+      <c r="R1002" s="6"/>
+      <c r="S1002" s="6"/>
+      <c r="T1002" s="6"/>
+      <c r="U1002" s="6"/>
+      <c r="V1002" s="6"/>
+      <c r="W1002" s="6"/>
+      <c r="X1002" s="6"/>
+      <c r="Y1002" s="6"/>
+      <c r="Z1002" s="6"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="6"/>
+      <c r="B1003" s="6"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="6"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
+      <c r="G1003" s="6"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+      <c r="J1003" s="6"/>
+      <c r="K1003" s="6"/>
+      <c r="L1003" s="6"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="6"/>
+      <c r="R1003" s="6"/>
+      <c r="S1003" s="6"/>
+      <c r="T1003" s="6"/>
+      <c r="U1003" s="6"/>
+      <c r="V1003" s="6"/>
+      <c r="W1003" s="6"/>
+      <c r="X1003" s="6"/>
+      <c r="Y1003" s="6"/>
+      <c r="Z1003" s="6"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="6"/>
+      <c r="C1004" s="6"/>
+      <c r="D1004" s="6"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
+      <c r="G1004" s="6"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+      <c r="Y1004" s="6"/>
+      <c r="Z1004" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E10"/>
+    <hyperlink r:id="rId2" ref="E14"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -35114,170 +35246,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -41245,42 +41377,42 @@
   <sheetData>
     <row r="17">
       <c r="C17" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>日期</t>
   </si>
@@ -331,6 +331,21 @@
     <t>小怪偵測到玩家開始暴衝的距離</t>
   </si>
   <si>
+    <t>流程圖原檔：</t>
+  </si>
+  <si>
+    <t>https://app.diagrams.net/#G198RaeA3XA_b2Xfwl_2D2yFxYfitIzsvj</t>
+  </si>
+  <si>
+    <t>遊戲整體流程圖</t>
+  </si>
+  <si>
+    <t>故事模式</t>
+  </si>
+  <si>
+    <t>挑戰模式</t>
+  </si>
+  <si>
     <t>1.左下角放玩家頭像、血條、技能(如果有的話)</t>
   </si>
   <si>
@@ -362,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -377,6 +392,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font/>
     <font>
       <b/>
       <color theme="0"/>
@@ -395,6 +414,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
   </fonts>
   <fills count="8">
@@ -461,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -484,7 +507,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -499,7 +528,7 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -514,13 +543,22 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -548,18 +586,74 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5438775" cy="10039350"/>
+    <xdr:ext cx="10944225" cy="6438900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4562475" cy="8439150"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image5.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>-180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4562475" cy="14411325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.png" title="圖片"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -588,7 +682,7 @@
     <xdr:ext cx="5133975" cy="2886075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image8.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -616,7 +710,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -672,7 +766,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7030,7 +7124,7 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6"/>
@@ -7061,7 +7155,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6"/>
@@ -7091,7 +7185,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6"/>
@@ -7121,7 +7215,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6"/>
@@ -7151,7 +7245,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7206,19 +7300,19 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="6"/>
@@ -7244,17 +7338,17 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -7278,17 +7372,17 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7312,19 +7406,19 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -7348,17 +7442,17 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -7382,19 +7476,19 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="6"/>
@@ -7420,19 +7514,19 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -7456,17 +7550,17 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -7490,17 +7584,17 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -7524,17 +7618,17 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -7558,53 +7652,53 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -7628,17 +7722,17 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -7662,17 +7756,17 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -7696,17 +7790,17 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7730,17 +7824,17 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -7764,17 +7858,17 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7798,17 +7892,17 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7832,17 +7926,17 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7866,11 +7960,11 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -7894,11 +7988,11 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -7922,11 +8016,11 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -7950,11 +8044,11 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -7978,11 +8072,11 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -35245,170 +35339,170 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -41360,8 +41454,35 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="G198RaeA3XA_b2Xfwl_2D2yFxYfitIzsvj" ref="C2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -41376,43 +41497,43 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="17">
-      <c r="C17" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="20" t="s">
+      <c r="C17" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" s="20" t="s">
+    <row r="18">
+      <c r="C18" s="25" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="19">
+      <c r="C19" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="30">
-      <c r="C30" s="20" t="s">
-        <v>105</v>
+      <c r="C30" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/企劃/Phantom Knight Prototype.xlsx
+++ b/企劃/Phantom Knight Prototype.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="修改紀錄" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="功能目標" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="數值需求" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="(程式)功能目標" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="(程式)數值需求" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="設計內容" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="UI參考" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="角色參考" sheetId="6" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>日期</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>建立本表</t>
+  </si>
+  <si>
+    <t>Alpha1.1</t>
+  </si>
+  <si>
+    <t>功能目標、數值需求(紅字部分)</t>
   </si>
   <si>
     <t>目標</t>
@@ -166,10 +172,22 @@
     <t>跳殺</t>
   </si>
   <si>
-    <t>跳到敵人頭上，對其造成傷害，玩家角色向上反彈</t>
+    <t>滯空時按向下與攻擊，對其造成傷害，玩家角色向上反彈</t>
   </si>
   <si>
-    <t>像是空洞騎士向下砍，鏟子騎士向下鏟</t>
+    <t>空洞騎士、鏟子騎士的向下攻擊</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GJiQz2_UVW4</t>
+  </si>
+  <si>
+    <t>翻滾</t>
+  </si>
+  <si>
+    <t>水平方向，快速向前移動，有無敵禎。</t>
+  </si>
+  <si>
+    <t>可參考死亡細胞</t>
   </si>
   <si>
     <t>敵人</t>
@@ -211,6 +229,9 @@
     <t>碰到玩家，就會對玩家造成傷害</t>
   </si>
   <si>
+    <t>向前一步，揮刀、擊退玩家</t>
+  </si>
+  <si>
     <t>反彈</t>
   </si>
   <si>
@@ -244,6 +265,15 @@
     <t>玩家的連擊</t>
   </si>
   <si>
+    <t>ComboTime</t>
+  </si>
+  <si>
+    <t>玩家連擊重置的時間</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>0.5秒(暫定)未攻擊到敵人就重置。</t>
   </si>
   <si>
@@ -260,9 +290,6 @@
   </si>
   <si>
     <t>擊退的距離</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>玩家攻擊造成擊退的距離</t>
@@ -346,7 +373,7 @@
     <t>挑戰模式</t>
   </si>
   <si>
-    <t>1.左下角放玩家頭像、血條、技能(如果有的話)</t>
+    <t>1.左下角放玩家頭像、血條、技能與其操作鍵位(如果有的話)</t>
   </si>
   <si>
     <t>2. 用漫畫的打擊字取代傷害數字(不一定要用英文)</t>
@@ -377,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -394,16 +421,25 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <b/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <strike/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -413,6 +449,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -484,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -507,13 +548,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -528,11 +563,14 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -540,25 +578,31 @@
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -738,7 +782,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -766,7 +810,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -794,7 +838,7 @@
     <xdr:ext cx="3048000" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="圖片"/>
+        <xdr:cNvPr id="0" name="image3.png" title="圖片"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1055,10 +1099,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="2">
+        <v>44634.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
@@ -7065,7 +7117,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7095,7 +7147,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7124,8 +7176,8 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
+      <c r="A3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7155,8 +7207,8 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -7185,8 +7237,8 @@
     </row>
     <row r="5">
       <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -7215,8 +7267,8 @@
     </row>
     <row r="6">
       <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -7245,7 +7297,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7300,20 +7352,20 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -7338,17 +7390,17 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -7372,17 +7424,17 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
+      <c r="A11" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7406,19 +7458,19 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
+      <c r="A12" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -7442,17 +7494,17 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -7476,20 +7528,20 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>26</v>
+      <c r="A14" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -7514,19 +7566,19 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>26</v>
+      <c r="A15" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -7550,17 +7602,17 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>26</v>
+      <c r="A16" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>36</v>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>37</v>
+      <c r="C16" s="11" t="s">
+        <v>39</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -7584,17 +7636,17 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
+      <c r="A17" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>38</v>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>39</v>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -7618,17 +7670,17 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>26</v>
+      <c r="A18" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>41</v>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -7652,53 +7704,57 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>26</v>
+      <c r="A19" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="E19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -7722,17 +7778,17 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>45</v>
+      <c r="A21" s="11" t="s">
+        <v>51</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>47</v>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>48</v>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -7756,17 +7812,17 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
-        <v>45</v>
+      <c r="A22" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>49</v>
+      <c r="B22" s="16" t="s">
+        <v>53</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>50</v>
+      <c r="C22" s="16" t="s">
+        <v>54</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -7790,17 +7846,17 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7824,17 +7880,17 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
-        <v>45</v>
+      <c r="A24" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>52</v>
+      <c r="B24" s="16" t="s">
+        <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>53</v>
+      <c r="C24" s="16" t="s">
+        <v>57</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -7858,17 +7914,17 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
-        <v>45</v>
+      <c r="A25" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>54</v>
+      <c r="B25" s="16" t="s">
+        <v>58</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>55</v>
+      <c r="C25" s="16" t="s">
+        <v>59</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7892,17 +7948,17 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
-        <v>45</v>
+      <c r="A26" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>56</v>
+      <c r="B26" s="16" t="s">
+        <v>60</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>57</v>
+      <c r="C26" s="16" t="s">
+        <v>61</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7926,17 +7982,17 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
-        <v>45</v>
+      <c r="A27" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>58</v>
+      <c r="B27" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
+      <c r="C27" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7960,11 +8016,17 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -7988,11 +8050,17 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -8016,11 +8084,11 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -8044,11 +8112,11 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -8072,11 +8140,11 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -8100,11 +8168,11 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -8128,11 +8196,11 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -35315,12 +35383,69 @@
       <c r="Y1004" s="6"/>
       <c r="Z1004" s="6"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="6"/>
+      <c r="B1005" s="6"/>
+      <c r="C1005" s="6"/>
+      <c r="D1005" s="6"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
+      <c r="G1005" s="6"/>
+      <c r="H1005" s="6"/>
+      <c r="I1005" s="6"/>
+      <c r="J1005" s="6"/>
+      <c r="K1005" s="6"/>
+      <c r="L1005" s="6"/>
+      <c r="M1005" s="6"/>
+      <c r="N1005" s="6"/>
+      <c r="O1005" s="6"/>
+      <c r="P1005" s="6"/>
+      <c r="Q1005" s="6"/>
+      <c r="R1005" s="6"/>
+      <c r="S1005" s="6"/>
+      <c r="T1005" s="6"/>
+      <c r="U1005" s="6"/>
+      <c r="V1005" s="6"/>
+      <c r="W1005" s="6"/>
+      <c r="X1005" s="6"/>
+      <c r="Y1005" s="6"/>
+      <c r="Z1005" s="6"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="6"/>
+      <c r="B1006" s="6"/>
+      <c r="C1006" s="6"/>
+      <c r="D1006" s="6"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
+      <c r="G1006" s="6"/>
+      <c r="H1006" s="6"/>
+      <c r="I1006" s="6"/>
+      <c r="J1006" s="6"/>
+      <c r="K1006" s="6"/>
+      <c r="L1006" s="6"/>
+      <c r="M1006" s="6"/>
+      <c r="N1006" s="6"/>
+      <c r="O1006" s="6"/>
+      <c r="P1006" s="6"/>
+      <c r="Q1006" s="6"/>
+      <c r="R1006" s="6"/>
+      <c r="S1006" s="6"/>
+      <c r="T1006" s="6"/>
+      <c r="U1006" s="6"/>
+      <c r="V1006" s="6"/>
+      <c r="W1006" s="6"/>
+      <c r="X1006" s="6"/>
+      <c r="Y1006" s="6"/>
+      <c r="Z1006" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="E14"/>
+    <hyperlink r:id="rId3" ref="E19"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -35335,182 +35460,189 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.29"/>
+    <col customWidth="1" min="2" max="2" width="21.29"/>
     <col customWidth="1" min="4" max="4" width="49.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="D1" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="21" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="D4" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
+    <row r="5">
+      <c r="A5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>75</v>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
+    <row r="6">
+      <c r="A6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>65</v>
+      <c r="C6" s="22" t="s">
+        <v>78</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
+    <row r="7">
+      <c r="A7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>65</v>
+      <c r="C7" s="22" t="s">
+        <v>78</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+    <row r="8">
+      <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>75</v>
+      <c r="C8" s="22" t="s">
+        <v>78</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
+    <row r="9">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>75</v>
+      <c r="C9" s="22" t="s">
+        <v>72</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
+    <row r="10">
+      <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>75</v>
+      <c r="C10" s="22" t="s">
+        <v>72</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6"/>
@@ -41439,6 +41571,12 @@
       <c r="B1001" s="6"/>
       <c r="C1001" s="6"/>
       <c r="D1001" s="6"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="6"/>
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -41456,26 +41594,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="22" t="s">
-        <v>98</v>
+      <c r="B2" s="24" t="s">
+        <v>107</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>99</v>
+      <c r="C2" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="22" t="s">
-        <v>100</v>
+      <c r="B3" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="22" t="s">
-        <v>101</v>
+      <c r="B38" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="22" t="s">
-        <v>102</v>
+      <c r="B83" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -41497,43 +41635,43 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="17">
-      <c r="C17" s="24" t="s">
-        <v>103</v>
+      <c r="C17" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="25" t="s">
-        <v>104</v>
+      <c r="C18" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="24" t="s">
-        <v>105</v>
+      <c r="C19" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="24" t="s">
-        <v>106</v>
+      <c r="C20" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="24" t="s">
-        <v>107</v>
+      <c r="C21" s="26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="24" t="s">
-        <v>108</v>
+      <c r="C22" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="24" t="s">
-        <v>109</v>
+      <c r="C26" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="24" t="s">
-        <v>110</v>
+      <c r="C30" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
